--- a/MacBook_MySQL_Database.xlsx
+++ b/MacBook_MySQL_Database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Mac Book</t>
   </si>
@@ -328,6 +328,10 @@
       </rPr>
       <t>64/Docker.dmg</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -996,8 +1000,8 @@
   </sheetPr>
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1096,7 +1100,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
   </sheetData>
